--- a/ressources/stockage/Diagramme-de-Gantt-sur-Excel-v3.xlsx
+++ b/ressources/stockage/Diagramme-de-Gantt-sur-Excel-v3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cBeriot\Downloads\diagramme-de-gantt-sur-excel-v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cBeriot\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" tabRatio="670" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Projet 1" sheetId="1" r:id="rId1"/>
@@ -707,6 +707,23 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -734,35 +751,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -799,10 +793,16 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -954,345 +954,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="270">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="270">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="4"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="270">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="6"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="270">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="270">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="4"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="270">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="6"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA7C46E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA7C46E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <left/>
         <right style="thin">
@@ -1414,9 +1075,9 @@
     <tableColumn id="3" name="Id sous-tâche"/>
     <tableColumn id="4" name="Sous-tâches"/>
     <tableColumn id="5" name="Auteur"/>
-    <tableColumn id="6" name="Date de début" dataDxfId="13"/>
+    <tableColumn id="6" name="Date de début" dataDxfId="14"/>
     <tableColumn id="7" name="Durée"/>
-    <tableColumn id="8" name="Réalisé" dataDxfId="14"/>
+    <tableColumn id="8" name="Réalisé" dataDxfId="13"/>
     <tableColumn id="9" name="Estimation"/>
     <tableColumn id="10" name="Réel"/>
     <tableColumn id="11" name="Commentaire"/>
@@ -1426,20 +1087,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:K41" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:K41" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:K41"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="id-tâche" dataDxfId="12"/>
-    <tableColumn id="2" name="Tâches" dataDxfId="11"/>
-    <tableColumn id="3" name="Id sous-tâche" dataDxfId="10"/>
-    <tableColumn id="4" name="Sous-tâches" dataDxfId="9"/>
-    <tableColumn id="5" name="Auteur" dataDxfId="8"/>
-    <tableColumn id="6" name="Date de début" dataDxfId="7"/>
-    <tableColumn id="7" name="Durée" dataDxfId="6"/>
-    <tableColumn id="8" name="Réalisé" dataDxfId="5"/>
-    <tableColumn id="9" name="Estimation" dataDxfId="4"/>
-    <tableColumn id="10" name="Réel" dataDxfId="3"/>
-    <tableColumn id="11" name="Commentaire" dataDxfId="2"/>
+    <tableColumn id="1" name="id-tâche" dataDxfId="10"/>
+    <tableColumn id="2" name="Tâches" dataDxfId="9"/>
+    <tableColumn id="3" name="Id sous-tâche" dataDxfId="8"/>
+    <tableColumn id="4" name="Sous-tâches" dataDxfId="7"/>
+    <tableColumn id="5" name="Auteur" dataDxfId="6"/>
+    <tableColumn id="6" name="Date de début" dataDxfId="5"/>
+    <tableColumn id="7" name="Durée" dataDxfId="4"/>
+    <tableColumn id="8" name="Réalisé" dataDxfId="3"/>
+    <tableColumn id="9" name="Estimation" dataDxfId="2"/>
+    <tableColumn id="10" name="Réel" dataDxfId="1"/>
+    <tableColumn id="11" name="Commentaire" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1757,57 +1418,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="G1" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:67" ht="12" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="37" t="s">
+      <c r="A2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
       <c r="G2" s="3">
         <f ca="1">TODAY()</f>
-        <v>42752</v>
+        <v>42758</v>
       </c>
     </row>
     <row r="3" spans="1:67" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="37" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:67" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="23"/>
       <c r="D4" s="24"/>
       <c r="E4" s="25"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:67" ht="12" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="32" t="s">
         <v>12</v>
       </c>
@@ -1816,10 +1477,10 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:67" ht="12" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="40"/>
+      <c r="A6" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="49"/>
       <c r="C6" s="27">
         <v>42740</v>
       </c>
@@ -1828,13 +1489,13 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:67" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="16"/>
       <c r="G7" s="13"/>
       <c r="H7" s="5">
@@ -2325,19 +1986,19 @@
     </row>
     <row r="9" spans="1:67" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="45" t="s">
+      <c r="C9" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="40" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="15"/>
@@ -2584,11 +2245,11 @@
     </row>
     <row r="10" spans="1:67" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="43"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="40"/>
       <c r="G10" s="15"/>
       <c r="H10" s="10">
         <f>DAY(H7)</f>
@@ -2838,13 +2499,13 @@
       <c r="B11" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="36">
         <v>42740</v>
       </c>
       <c r="D11" s="21">
         <v>58</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="36">
         <f>IF(B11="","",IF($C$5="OUI",WORKDAY(C11,IF(WEEKDAY(C11,2)&gt;=6,D11,D11-1)),C11+D11-1))</f>
         <v>42797</v>
       </c>
@@ -2934,11 +2595,11 @@
       </c>
       <c r="F12" s="29">
         <f>Suivi!H2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="18">
         <f t="shared" ref="G12:G41" si="7">C12+F12*(E12-C12)</f>
-        <v>42740</v>
+        <v>42744</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3261,7 +2922,7 @@
       </c>
       <c r="F17" s="29">
         <f>Suivi!H7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="18">
         <f t="shared" si="7"/>
@@ -3313,15 +2974,15 @@
       </c>
       <c r="D19" s="11">
         <f>Suivi!G9</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E19" s="31">
         <f t="shared" si="8"/>
-        <v>42758</v>
+        <v>42751</v>
       </c>
       <c r="F19" s="29">
         <f>Suivi!H9</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G19" s="18">
         <f t="shared" si="7"/>
@@ -3343,11 +3004,11 @@
       </c>
       <c r="D20" s="11">
         <f>Suivi!G10</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E20" s="31">
         <f t="shared" si="8"/>
-        <v>42758</v>
+        <v>42751</v>
       </c>
       <c r="F20" s="29">
         <f>Suivi!H10</f>
@@ -3373,11 +3034,11 @@
       </c>
       <c r="D21" s="11">
         <f>Suivi!G11</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E21" s="31">
         <f t="shared" si="8"/>
-        <v>42758</v>
+        <v>42751</v>
       </c>
       <c r="F21" s="29">
         <f>Suivi!H11</f>
@@ -3403,11 +3064,11 @@
       </c>
       <c r="D22" s="11">
         <f>Suivi!G12</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E22" s="31">
         <f t="shared" si="8"/>
-        <v>42758</v>
+        <v>42751</v>
       </c>
       <c r="F22" s="29">
         <f>Suivi!H12</f>
@@ -3433,11 +3094,11 @@
       </c>
       <c r="D23" s="11">
         <f>Suivi!G13</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E23" s="31">
         <f t="shared" si="8"/>
-        <v>42758</v>
+        <v>42751</v>
       </c>
       <c r="F23" s="29">
         <f>Suivi!H13</f>
@@ -3531,11 +3192,11 @@
       </c>
       <c r="F26" s="29">
         <f>Suivi!H16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="18">
         <f t="shared" si="7"/>
-        <v>42751</v>
+        <v>42761</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3561,11 +3222,11 @@
       </c>
       <c r="F27" s="29">
         <f>Suivi!H17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="18">
         <f t="shared" si="7"/>
-        <v>42740</v>
+        <v>42759</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3673,11 +3334,11 @@
       </c>
       <c r="D31" s="11">
         <f>Suivi!G21</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" s="31">
         <f t="shared" si="8"/>
-        <v>42769</v>
+        <v>42768</v>
       </c>
       <c r="F31" s="29">
         <f>Suivi!H21</f>
@@ -4029,11 +3690,11 @@
       </c>
       <c r="D43" s="11">
         <f>Suivi!G33</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E43" s="31">
         <f t="shared" si="8"/>
-        <v>42779</v>
+        <v>42777</v>
       </c>
       <c r="F43" s="29">
         <f>Suivi!H33</f>
@@ -4055,11 +3716,11 @@
       </c>
       <c r="D44" s="11">
         <f>Suivi!G34</f>
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="E44" s="31">
         <f t="shared" si="8"/>
-        <v>42795</v>
+        <v>42741</v>
       </c>
       <c r="F44" s="29">
         <f>Suivi!H34</f>
@@ -4167,7 +3828,7 @@
       </c>
       <c r="F48" s="29">
         <f>Suivi!H38</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4538,11 +4199,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C2:E2"/>
@@ -4552,57 +4208,62 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:BO8">
-    <cfRule type="expression" dxfId="32" priority="16">
+    <cfRule type="expression" dxfId="27" priority="16">
       <formula>H8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BO7">
-    <cfRule type="expression" dxfId="31" priority="15">
+    <cfRule type="expression" dxfId="26" priority="15">
       <formula>I10&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BO10">
-    <cfRule type="expression" dxfId="30" priority="13">
+    <cfRule type="expression" dxfId="25" priority="13">
       <formula>I$10=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F102">
-    <cfRule type="expression" dxfId="29" priority="7">
+    <cfRule type="expression" dxfId="24" priority="7">
       <formula>$B11&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:BO99">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="23" priority="29">
       <formula>AND(H$7=$G$2,$B7&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:BO99">
-    <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="30" stopIfTrue="1">
       <formula>$B12=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="31">
+    <cfRule type="expression" dxfId="21" priority="31">
       <formula>AND(H$7&gt;=$C12,H$7&lt;=$E12,H$7&lt;=$G12,$F12&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="32">
+    <cfRule type="expression" dxfId="20" priority="32">
       <formula>AND(H$7&gt;=$C12,H$7&lt;=$E12,H$7&gt;=$G12,H$7&gt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="33">
+    <cfRule type="expression" dxfId="19" priority="33">
       <formula>AND(H$7&gt;=$C12,H$7&lt;=$E12,H$7&gt;=$G12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:BO11">
-    <cfRule type="expression" dxfId="22" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
       <formula>$B11=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>AND(H$7&gt;=$C11,H$7&lt;=$E11,H$7&lt;=$G11,$F11&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="3">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>AND(H$7&gt;=$C11,H$7&lt;=$E11,H$7&gt;=$G11,H$7&gt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="4">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula>AND(H$7&gt;=$C11,H$7&lt;=$E11,H$7&gt;=$G11)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4654,7 +4315,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4723,14 +4384,14 @@
       <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="46">
+      <c r="F2" s="34">
         <v>42740</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2" s="47">
-        <v>0</v>
+      <c r="H2" s="35">
+        <v>1</v>
       </c>
       <c r="I2">
         <v>3</v>
@@ -4755,13 +4416,13 @@
       <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="34">
         <v>42745</v>
       </c>
       <c r="G3">
         <v>24</v>
       </c>
-      <c r="H3" s="47">
+      <c r="H3" s="35">
         <v>0</v>
       </c>
       <c r="K3" t="s">
@@ -4784,13 +4445,13 @@
       <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="34">
         <v>42750</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4810,13 +4471,13 @@
       <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="34">
         <v>42755</v>
       </c>
       <c r="G5">
         <v>5</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="35">
         <v>0</v>
       </c>
       <c r="K5" t="s">
@@ -4839,13 +4500,13 @@
       <c r="E6" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="34">
         <v>42751</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="35">
         <v>0.75</v>
       </c>
     </row>
@@ -4865,14 +4526,14 @@
       <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="34">
         <v>42752</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="47">
-        <v>0</v>
+      <c r="H7" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -4891,13 +4552,13 @@
       <c r="E8" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="34">
         <v>42751</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4917,14 +4578,14 @@
       <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="34">
         <v>42751</v>
       </c>
       <c r="G9">
-        <v>8</v>
-      </c>
-      <c r="H9" s="47">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H9" s="35">
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4943,13 +4604,13 @@
       <c r="E10" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="34">
         <v>42751</v>
       </c>
       <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="H10" s="47">
+        <v>1</v>
+      </c>
+      <c r="H10" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4969,13 +4630,13 @@
       <c r="E11" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="34">
         <v>42751</v>
       </c>
       <c r="G11">
-        <v>8</v>
-      </c>
-      <c r="H11" s="47">
+        <v>1</v>
+      </c>
+      <c r="H11" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4995,13 +4656,13 @@
       <c r="E12" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="34">
         <v>42751</v>
       </c>
       <c r="G12">
-        <v>8</v>
-      </c>
-      <c r="H12" s="47">
+        <v>1</v>
+      </c>
+      <c r="H12" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5021,13 +4682,13 @@
       <c r="E13" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="34">
         <v>42751</v>
       </c>
       <c r="G13">
-        <v>8</v>
-      </c>
-      <c r="H13" s="47">
+        <v>1</v>
+      </c>
+      <c r="H13" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5047,13 +4708,13 @@
       <c r="E14" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="34">
         <v>42751</v>
       </c>
       <c r="G14">
         <v>11</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="35">
         <v>0</v>
       </c>
       <c r="K14" t="s">
@@ -5076,13 +4737,13 @@
       <c r="E15" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="34">
         <v>42751</v>
       </c>
       <c r="G15">
         <v>11</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5102,14 +4763,14 @@
       <c r="E16" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="34">
         <v>42751</v>
       </c>
       <c r="G16">
         <v>11</v>
       </c>
-      <c r="H16" s="47">
-        <v>0</v>
+      <c r="H16" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -5128,14 +4789,14 @@
       <c r="E17" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="34">
         <v>42740</v>
       </c>
       <c r="G17">
         <v>20</v>
       </c>
-      <c r="H17" s="47">
-        <v>0</v>
+      <c r="H17" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -5154,13 +4815,13 @@
       <c r="E18" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="34">
         <v>42752</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H18" s="35">
         <v>1</v>
       </c>
     </row>
@@ -5180,13 +4841,13 @@
       <c r="E19" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="34">
         <v>42753</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="H19" s="47">
+      <c r="H19" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5206,13 +4867,13 @@
       <c r="E20" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="34">
         <v>42752</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="35">
         <v>1</v>
       </c>
     </row>
@@ -5232,13 +4893,13 @@
       <c r="E21" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="46">
+      <c r="F21" s="34">
         <v>42768</v>
       </c>
       <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21" s="47">
+        <v>1</v>
+      </c>
+      <c r="H21" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5255,13 +4916,13 @@
       <c r="D22" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22" s="34">
         <v>42768</v>
       </c>
       <c r="G22">
         <v>28</v>
       </c>
-      <c r="H22" s="47">
+      <c r="H22" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5278,13 +4939,13 @@
       <c r="D23" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="46">
+      <c r="F23" s="34">
         <v>42768</v>
       </c>
       <c r="G23">
         <v>28</v>
       </c>
-      <c r="H23" s="47">
+      <c r="H23" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5301,13 +4962,13 @@
       <c r="D24" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="46">
+      <c r="F24" s="34">
         <v>42770</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="H24" s="47">
+      <c r="H24" s="35">
         <v>0</v>
       </c>
       <c r="K24" t="s">
@@ -5327,13 +4988,13 @@
       <c r="D25" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25" s="34">
         <v>42771</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="H25" s="47">
+      <c r="H25" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5350,13 +5011,13 @@
       <c r="D26" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="46">
+      <c r="F26" s="34">
         <v>42772</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
-      <c r="H26" s="47">
+      <c r="H26" s="35">
         <v>0</v>
       </c>
       <c r="K26" t="s">
@@ -5376,13 +5037,13 @@
       <c r="D27" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="46">
+      <c r="F27" s="34">
         <v>42773</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="H27" s="47">
+      <c r="H27" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5399,13 +5060,13 @@
       <c r="D28" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="46">
+      <c r="F28" s="34">
         <v>42773</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
-      <c r="H28" s="47">
+      <c r="H28" s="35">
         <v>0</v>
       </c>
       <c r="K28" t="s">
@@ -5425,13 +5086,13 @@
       <c r="D29" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="46">
+      <c r="F29" s="34">
         <v>42773</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
-      <c r="H29" s="47">
+      <c r="H29" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5448,13 +5109,13 @@
       <c r="D30" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="46">
+      <c r="F30" s="34">
         <v>42774</v>
       </c>
       <c r="G30">
         <v>2</v>
       </c>
-      <c r="H30" s="47">
+      <c r="H30" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5471,13 +5132,13 @@
       <c r="D31" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="46">
+      <c r="F31" s="34">
         <v>42775</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
-      <c r="H31" s="47">
+      <c r="H31" s="35">
         <v>0</v>
       </c>
       <c r="K31" t="s">
@@ -5500,13 +5161,13 @@
       <c r="E32" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="46">
+      <c r="F32" s="34">
         <v>42776</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
-      <c r="H32" s="47">
+      <c r="H32" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5526,13 +5187,13 @@
       <c r="E33" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="46">
+      <c r="F33" s="34">
         <v>42777</v>
       </c>
       <c r="G33">
-        <v>3</v>
-      </c>
-      <c r="H33" s="47">
+        <v>1</v>
+      </c>
+      <c r="H33" s="35">
         <v>0</v>
       </c>
       <c r="K33" t="s">
@@ -5552,13 +5213,13 @@
       <c r="D34" t="s">
         <v>113</v>
       </c>
-      <c r="F34" s="46">
+      <c r="F34" s="34">
         <v>42740</v>
       </c>
       <c r="G34">
-        <v>56</v>
-      </c>
-      <c r="H34" s="47">
+        <v>2</v>
+      </c>
+      <c r="H34" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5578,13 +5239,13 @@
       <c r="E35" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="46">
+      <c r="F35" s="34">
         <v>42740</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
-      <c r="H35" s="47">
+      <c r="H35" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5601,13 +5262,13 @@
       <c r="D36" t="s">
         <v>119</v>
       </c>
-      <c r="F36" s="46">
+      <c r="F36" s="34">
         <v>42787</v>
       </c>
       <c r="G36">
         <v>9</v>
       </c>
-      <c r="H36" s="47">
+      <c r="H36" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5627,13 +5288,13 @@
       <c r="E37" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="46">
+      <c r="F37" s="34">
         <v>42740</v>
       </c>
       <c r="G37">
         <v>58</v>
       </c>
-      <c r="H37" s="47">
+      <c r="H37" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5653,14 +5314,14 @@
       <c r="E38" t="s">
         <v>41</v>
       </c>
-      <c r="F38" s="46">
+      <c r="F38" s="34">
         <v>42740</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
-      <c r="H38" s="47">
-        <v>0</v>
+      <c r="H38" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -5679,13 +5340,13 @@
       <c r="E39" t="s">
         <v>126</v>
       </c>
-      <c r="F39" s="46">
+      <c r="F39" s="34">
         <v>42740</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
-      <c r="H39" s="47">
+      <c r="H39" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5705,13 +5366,13 @@
       <c r="E40" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="46">
+      <c r="F40" s="34">
         <v>42740</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
-      <c r="H40" s="47">
+      <c r="H40" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5731,13 +5392,13 @@
       <c r="E41" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="46">
+      <c r="F41" s="34">
         <v>42740</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
-      <c r="H41" s="47">
+      <c r="H41" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5779,1195 +5440,1195 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="49" t="s">
+      <c r="F1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="37" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="50">
+      <c r="F2" s="38">
         <v>42740</v>
       </c>
-      <c r="G2" s="49">
+      <c r="G2" s="37">
         <v>5</v>
       </c>
-      <c r="H2" s="51">
-        <v>0</v>
-      </c>
-      <c r="I2" s="49">
+      <c r="H2" s="39">
+        <v>0</v>
+      </c>
+      <c r="I2" s="37">
         <v>3</v>
       </c>
-      <c r="J2" s="49">
+      <c r="J2" s="37">
         <v>2</v>
       </c>
-      <c r="K2" s="49"/>
+      <c r="K2" s="37"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="38">
         <v>42745</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="37">
         <v>24</v>
       </c>
-      <c r="H3" s="51">
-        <v>0</v>
-      </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49" t="s">
+      <c r="H3" s="39">
+        <v>0</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="38">
         <v>42750</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="37">
         <v>5</v>
       </c>
-      <c r="H4" s="51">
-        <v>0</v>
-      </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
+      <c r="H4" s="39">
+        <v>0</v>
+      </c>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="38">
         <v>42755</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="37">
         <v>5</v>
       </c>
-      <c r="H5" s="51">
-        <v>0</v>
-      </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49" t="s">
+      <c r="H5" s="39">
+        <v>0</v>
+      </c>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="38">
         <v>42751</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="37">
         <v>2</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="39">
         <v>0.75</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="38">
         <v>42752</v>
       </c>
-      <c r="G7" s="49">
-        <v>1</v>
-      </c>
-      <c r="H7" s="51">
-        <v>0</v>
-      </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
+      <c r="G7" s="37">
+        <v>1</v>
+      </c>
+      <c r="H7" s="39">
+        <v>0</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="38">
         <v>42751</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="37">
         <v>3</v>
       </c>
-      <c r="H8" s="51">
-        <v>0</v>
-      </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
+      <c r="H8" s="39">
+        <v>0</v>
+      </c>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="38">
         <v>42751</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="37">
         <v>8</v>
       </c>
-      <c r="H9" s="51">
-        <v>0</v>
-      </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
+      <c r="H9" s="39">
+        <v>0</v>
+      </c>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="38">
         <v>42751</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="37">
         <v>8</v>
       </c>
-      <c r="H10" s="51">
-        <v>0</v>
-      </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
+      <c r="H10" s="39">
+        <v>0</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="38">
         <v>42751</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="37">
         <v>8</v>
       </c>
-      <c r="H11" s="51">
-        <v>0</v>
-      </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
+      <c r="H11" s="39">
+        <v>0</v>
+      </c>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F12" s="38">
         <v>42751</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="37">
         <v>8</v>
       </c>
-      <c r="H12" s="51">
-        <v>0</v>
-      </c>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
+      <c r="H12" s="39">
+        <v>0</v>
+      </c>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="50">
+      <c r="F13" s="38">
         <v>42751</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="37">
         <v>8</v>
       </c>
-      <c r="H13" s="51">
-        <v>0</v>
-      </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
+      <c r="H13" s="39">
+        <v>0</v>
+      </c>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="E14" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="38">
         <v>42751</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="37">
         <v>11</v>
       </c>
-      <c r="H14" s="51">
-        <v>0</v>
-      </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49" t="s">
+      <c r="H14" s="39">
+        <v>0</v>
+      </c>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="E15" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="50">
+      <c r="F15" s="38">
         <v>42751</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="37">
         <v>11</v>
       </c>
-      <c r="H15" s="51">
-        <v>0</v>
-      </c>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
+      <c r="H15" s="39">
+        <v>0</v>
+      </c>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="38">
         <v>42751</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="37">
         <v>11</v>
       </c>
-      <c r="H16" s="51">
-        <v>0</v>
-      </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
+      <c r="H16" s="39">
+        <v>0</v>
+      </c>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17" s="38">
         <v>42740</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="37">
         <v>20</v>
       </c>
-      <c r="H17" s="51">
-        <v>0</v>
-      </c>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
+      <c r="H17" s="39">
+        <v>0</v>
+      </c>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="38">
         <v>42752</v>
       </c>
-      <c r="G18" s="49">
-        <v>1</v>
-      </c>
-      <c r="H18" s="51">
-        <v>1</v>
-      </c>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
+      <c r="G18" s="37">
+        <v>1</v>
+      </c>
+      <c r="H18" s="39">
+        <v>1</v>
+      </c>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="49" t="s">
+      <c r="E19" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="50">
+      <c r="F19" s="38">
         <v>42753</v>
       </c>
-      <c r="G19" s="49">
-        <v>1</v>
-      </c>
-      <c r="H19" s="51">
-        <v>0</v>
-      </c>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
+      <c r="G19" s="37">
+        <v>1</v>
+      </c>
+      <c r="H19" s="39">
+        <v>0</v>
+      </c>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="49" t="s">
+      <c r="E20" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="50">
+      <c r="F20" s="38">
         <v>42752</v>
       </c>
-      <c r="G20" s="49">
-        <v>1</v>
-      </c>
-      <c r="H20" s="51">
-        <v>1</v>
-      </c>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
+      <c r="G20" s="37">
+        <v>1</v>
+      </c>
+      <c r="H20" s="39">
+        <v>1</v>
+      </c>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="50">
+      <c r="F21" s="38">
         <v>42768</v>
       </c>
-      <c r="G21" s="49">
+      <c r="G21" s="37">
         <v>2</v>
       </c>
-      <c r="H21" s="51">
-        <v>0</v>
-      </c>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
+      <c r="H21" s="39">
+        <v>0</v>
+      </c>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50">
+      <c r="E22" s="37"/>
+      <c r="F22" s="38">
         <v>42768</v>
       </c>
-      <c r="G22" s="49">
+      <c r="G22" s="37">
         <v>28</v>
       </c>
-      <c r="H22" s="51">
-        <v>0</v>
-      </c>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
+      <c r="H22" s="39">
+        <v>0</v>
+      </c>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50">
+      <c r="E23" s="37"/>
+      <c r="F23" s="38">
         <v>42768</v>
       </c>
-      <c r="G23" s="49">
+      <c r="G23" s="37">
         <v>28</v>
       </c>
-      <c r="H23" s="51">
-        <v>0</v>
-      </c>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
+      <c r="H23" s="39">
+        <v>0</v>
+      </c>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50">
+      <c r="E24" s="37"/>
+      <c r="F24" s="38">
         <v>42770</v>
       </c>
-      <c r="G24" s="49">
-        <v>1</v>
-      </c>
-      <c r="H24" s="51">
-        <v>0</v>
-      </c>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49" t="s">
+      <c r="G24" s="37">
+        <v>1</v>
+      </c>
+      <c r="H24" s="39">
+        <v>0</v>
+      </c>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50">
+      <c r="E25" s="37"/>
+      <c r="F25" s="38">
         <v>42771</v>
       </c>
-      <c r="G25" s="49">
-        <v>1</v>
-      </c>
-      <c r="H25" s="51">
-        <v>0</v>
-      </c>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
+      <c r="G25" s="37">
+        <v>1</v>
+      </c>
+      <c r="H25" s="39">
+        <v>0</v>
+      </c>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50">
+      <c r="E26" s="37"/>
+      <c r="F26" s="38">
         <v>42772</v>
       </c>
-      <c r="G26" s="49">
-        <v>1</v>
-      </c>
-      <c r="H26" s="51">
-        <v>0</v>
-      </c>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49" t="s">
+      <c r="G26" s="37">
+        <v>1</v>
+      </c>
+      <c r="H26" s="39">
+        <v>0</v>
+      </c>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50">
+      <c r="E27" s="37"/>
+      <c r="F27" s="38">
         <v>42773</v>
       </c>
-      <c r="G27" s="49">
-        <v>1</v>
-      </c>
-      <c r="H27" s="51">
-        <v>0</v>
-      </c>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
+      <c r="G27" s="37">
+        <v>1</v>
+      </c>
+      <c r="H27" s="39">
+        <v>0</v>
+      </c>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50">
+      <c r="E28" s="37"/>
+      <c r="F28" s="38">
         <v>42773</v>
       </c>
-      <c r="G28" s="49">
-        <v>1</v>
-      </c>
-      <c r="H28" s="51">
-        <v>0</v>
-      </c>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49" t="s">
+      <c r="G28" s="37">
+        <v>1</v>
+      </c>
+      <c r="H28" s="39">
+        <v>0</v>
+      </c>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="49"/>
-      <c r="F29" s="50">
+      <c r="E29" s="37"/>
+      <c r="F29" s="38">
         <v>42773</v>
       </c>
-      <c r="G29" s="49">
-        <v>1</v>
-      </c>
-      <c r="H29" s="51">
-        <v>0</v>
-      </c>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
+      <c r="G29" s="37">
+        <v>1</v>
+      </c>
+      <c r="H29" s="39">
+        <v>0</v>
+      </c>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50">
+      <c r="E30" s="37"/>
+      <c r="F30" s="38">
         <v>42774</v>
       </c>
-      <c r="G30" s="49">
+      <c r="G30" s="37">
         <v>2</v>
       </c>
-      <c r="H30" s="51">
-        <v>0</v>
-      </c>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
+      <c r="H30" s="39">
+        <v>0</v>
+      </c>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50">
+      <c r="E31" s="37"/>
+      <c r="F31" s="38">
         <v>42775</v>
       </c>
-      <c r="G31" s="49">
-        <v>1</v>
-      </c>
-      <c r="H31" s="51">
-        <v>0</v>
-      </c>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49" t="s">
+      <c r="G31" s="37">
+        <v>1</v>
+      </c>
+      <c r="H31" s="39">
+        <v>0</v>
+      </c>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="49" t="s">
+      <c r="E32" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="50">
+      <c r="F32" s="38">
         <v>42776</v>
       </c>
-      <c r="G32" s="49">
-        <v>1</v>
-      </c>
-      <c r="H32" s="51">
-        <v>0</v>
-      </c>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
+      <c r="G32" s="37">
+        <v>1</v>
+      </c>
+      <c r="H32" s="39">
+        <v>0</v>
+      </c>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="49" t="s">
+      <c r="E33" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="50">
+      <c r="F33" s="38">
         <v>42777</v>
       </c>
-      <c r="G33" s="49">
+      <c r="G33" s="37">
         <v>3</v>
       </c>
-      <c r="H33" s="51">
-        <v>0</v>
-      </c>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49" t="s">
+      <c r="H33" s="39">
+        <v>0</v>
+      </c>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="D34" s="49" t="s">
+      <c r="D34" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="49"/>
-      <c r="F34" s="50">
+      <c r="E34" s="37"/>
+      <c r="F34" s="38">
         <v>42740</v>
       </c>
-      <c r="G34" s="49">
+      <c r="G34" s="37">
         <v>56</v>
       </c>
-      <c r="H34" s="51">
-        <v>0</v>
-      </c>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
+      <c r="H34" s="39">
+        <v>0</v>
+      </c>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="49" t="s">
+      <c r="D35" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="E35" s="49" t="s">
+      <c r="E35" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="50">
+      <c r="F35" s="38">
         <v>42740</v>
       </c>
-      <c r="G35" s="49">
-        <v>1</v>
-      </c>
-      <c r="H35" s="51">
-        <v>0</v>
-      </c>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
+      <c r="G35" s="37">
+        <v>1</v>
+      </c>
+      <c r="H35" s="39">
+        <v>0</v>
+      </c>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="49" t="s">
+      <c r="D36" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="E36" s="49"/>
-      <c r="F36" s="50">
+      <c r="E36" s="37"/>
+      <c r="F36" s="38">
         <v>42787</v>
       </c>
-      <c r="G36" s="49">
+      <c r="G36" s="37">
         <v>9</v>
       </c>
-      <c r="H36" s="51">
-        <v>0</v>
-      </c>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
+      <c r="H36" s="39">
+        <v>0</v>
+      </c>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="49" t="s">
+      <c r="D37" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="49" t="s">
+      <c r="E37" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="50">
+      <c r="F37" s="38">
         <v>42740</v>
       </c>
-      <c r="G37" s="49">
+      <c r="G37" s="37">
         <v>58</v>
       </c>
-      <c r="H37" s="51">
-        <v>0</v>
-      </c>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
+      <c r="H37" s="39">
+        <v>0</v>
+      </c>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="49" t="s">
+      <c r="D38" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="49" t="s">
+      <c r="E38" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="F38" s="50">
+      <c r="F38" s="38">
         <v>42740</v>
       </c>
-      <c r="G38" s="49">
-        <v>1</v>
-      </c>
-      <c r="H38" s="51">
-        <v>0</v>
-      </c>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
+      <c r="G38" s="37">
+        <v>1</v>
+      </c>
+      <c r="H38" s="39">
+        <v>0</v>
+      </c>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="D39" s="49" t="s">
+      <c r="D39" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="49" t="s">
+      <c r="E39" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="F39" s="50">
+      <c r="F39" s="38">
         <v>42740</v>
       </c>
-      <c r="G39" s="49">
-        <v>1</v>
-      </c>
-      <c r="H39" s="51">
-        <v>0</v>
-      </c>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
+      <c r="G39" s="37">
+        <v>1</v>
+      </c>
+      <c r="H39" s="39">
+        <v>0</v>
+      </c>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="49" t="s">
+      <c r="E40" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="50">
+      <c r="F40" s="38">
         <v>42740</v>
       </c>
-      <c r="G40" s="49">
-        <v>1</v>
-      </c>
-      <c r="H40" s="51">
-        <v>0</v>
-      </c>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
+      <c r="G40" s="37">
+        <v>1</v>
+      </c>
+      <c r="H40" s="39">
+        <v>0</v>
+      </c>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E41" s="49" t="s">
+      <c r="E41" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="50">
+      <c r="F41" s="38">
         <v>42740</v>
       </c>
-      <c r="G41" s="49">
-        <v>1</v>
-      </c>
-      <c r="H41" s="51">
-        <v>0</v>
-      </c>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
+      <c r="G41" s="37">
+        <v>1</v>
+      </c>
+      <c r="H41" s="39">
+        <v>0</v>
+      </c>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="rA9T4ruBrYwOnTgEZshYD1eMqa4TO/9/hNBWGY0hKyjC7DqyAuaSKD/bQW2YsZ9c/OvJDmZQD7UD06qF9f6XoA==" saltValue="q1PeexO79cReSn55g//TGQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/ressources/stockage/Diagramme-de-Gantt-sur-Excel-v3.xlsx
+++ b/ressources/stockage/Diagramme-de-Gantt-sur-Excel-v3.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="132">
   <si>
     <t>Projet</t>
   </si>
@@ -715,15 +715,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -750,6 +741,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1418,57 +1418,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="G1" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:67" ht="12" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="46" t="s">
+      <c r="A2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
       <c r="G2" s="3">
         <f ca="1">TODAY()</f>
         <v>42758</v>
       </c>
     </row>
     <row r="3" spans="1:67" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:67" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="23"/>
       <c r="D4" s="24"/>
       <c r="E4" s="25"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:67" ht="12" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="49"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="32" t="s">
         <v>12</v>
       </c>
@@ -1477,10 +1477,10 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:67" ht="12" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="49"/>
+      <c r="A6" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="46"/>
       <c r="C6" s="27">
         <v>42740</v>
       </c>
@@ -1489,13 +1489,13 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:67" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="16"/>
       <c r="G7" s="13"/>
       <c r="H7" s="5">
@@ -1986,19 +1986,19 @@
     </row>
     <row r="9" spans="1:67" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="42" t="s">
+      <c r="C9" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="49" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="15"/>
@@ -2245,11 +2245,11 @@
     </row>
     <row r="10" spans="1:67" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="40"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="15"/>
       <c r="H10" s="10">
         <f>DAY(H7)</f>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="F19" s="29">
         <f>Suivi!H9</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G19" s="18">
         <f t="shared" si="7"/>
@@ -4199,6 +4199,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C2:E2"/>
@@ -4208,11 +4213,6 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:BO8">
     <cfRule type="expression" dxfId="27" priority="16">
@@ -4315,7 +4315,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4585,7 +4585,13 @@
         <v>1</v>
       </c>
       <c r="H9" s="35">
-        <v>0.25</v>
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -5213,6 +5219,9 @@
       <c r="D34" t="s">
         <v>113</v>
       </c>
+      <c r="E34" t="s">
+        <v>41</v>
+      </c>
       <c r="F34" s="34">
         <v>42740</v>
       </c>
@@ -5221,6 +5230,9 @@
       </c>
       <c r="H34" s="35">
         <v>0</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -5321,6 +5333,12 @@
         <v>1</v>
       </c>
       <c r="H38" s="35">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
         <v>1</v>
       </c>
     </row>

--- a/ressources/stockage/Diagramme-de-Gantt-sur-Excel-v3.xlsx
+++ b/ressources/stockage/Diagramme-de-Gantt-sur-Excel-v3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cBeriot\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Downloads\DISII-Projet2-master\DISII-Projet2-master\ressources\stockage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="670" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="670"/>
   </bookViews>
   <sheets>
     <sheet name="Projet 1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Projet 1'!$A$1:$BO$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Tableau1[#All]</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="133">
   <si>
     <t>Projet</t>
   </si>
@@ -75,15 +75,6 @@
     <t>Chef de projet</t>
   </si>
   <si>
-    <t>Commentaires</t>
-  </si>
-  <si>
-    <t>Article Apprendre-Excel.fr</t>
-  </si>
-  <si>
-    <t>Cédric GUERIN</t>
-  </si>
-  <si>
     <t>Tâches</t>
   </si>
   <si>
@@ -424,12 +415,47 @@
   </si>
   <si>
     <t>Sous-tâches</t>
+  </si>
+  <si>
+    <t>Site Dynamique PHP MVC</t>
+  </si>
+  <si>
+    <t>Groupe 3</t>
+  </si>
+  <si>
+    <t>Sous-Tâche abandonnée. Non Nécessaire au sujet demandé</t>
+  </si>
+  <si>
+    <r>
+      <t>Commentaires :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Le diagramme de Gantt permet d'avoir une première vue sur les jalons du projet. Le tableau de suivi quant à lui permet d'avoir une vue sur l'estimation des sous-tâches. Le tableau de suivi sert également à la création de fiche journalière. Il reprend une ligne entière pour créer un document unique à l'utilisateur.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-40C]mmm\-yy;@"/>
   </numFmts>
@@ -715,14 +741,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -742,14 +768,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1038,6 +1064,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1182,6 +1211,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1217,6 +1263,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1399,9 +1462,9 @@
   </sheetPr>
   <dimension ref="A1:BO99"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11:BM11"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1412,7 +1475,7 @@
     <col min="4" max="4" width="5.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9" style="12" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="12" hidden="1" customWidth="1"/>
     <col min="8" max="67" width="2.5703125" style="1" customWidth="1"/>
     <col min="68" max="16384" width="11" style="1"/>
   </cols>
@@ -1435,13 +1498,13 @@
       </c>
       <c r="B2" s="46"/>
       <c r="C2" s="43" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="D2" s="43"/>
       <c r="E2" s="43"/>
       <c r="G2" s="3">
         <f ca="1">TODAY()</f>
-        <v>42758</v>
+        <v>42759</v>
       </c>
     </row>
     <row r="3" spans="1:67" ht="12" x14ac:dyDescent="0.2">
@@ -1450,7 +1513,7 @@
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="43" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="D3" s="43"/>
       <c r="E3" s="43"/>
@@ -1488,14 +1551,14 @@
       <c r="E6" s="30"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:67" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
+    <row r="7" spans="1:67" s="4" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="16"/>
       <c r="G7" s="13"/>
       <c r="H7" s="5">
@@ -1986,20 +2049,20 @@
     </row>
     <row r="9" spans="1:67" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
-      <c r="B9" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="51" t="s">
+      <c r="B9" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="49" t="s">
-        <v>19</v>
+      <c r="F9" s="40" t="s">
+        <v>16</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="10" t="str">
@@ -2245,11 +2308,11 @@
     </row>
     <row r="10" spans="1:67" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="49"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="40"/>
       <c r="G10" s="15"/>
       <c r="H10" s="10">
         <f>DAY(H7)</f>
@@ -2497,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C11" s="36">
         <v>42740</v>
@@ -2509,8 +2572,13 @@
         <f>IF(B11="","",IF($C$5="OUI",WORKDAY(C11,IF(WEEKDAY(C11,2)&gt;=6,D11,D11-1)),C11+D11-1))</f>
         <v>42797</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="22"/>
+      <c r="F11" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="G11" s="22">
+        <f>C11+F11*(E11-C11)</f>
+        <v>42754.25</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2764,20 +2832,19 @@
         <v>42750</v>
       </c>
       <c r="D14" s="11">
-        <f>Suivi!G4</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E14" s="31">
         <f t="shared" si="8"/>
-        <v>42754</v>
+        <v>42762</v>
       </c>
       <c r="F14" s="29">
         <f>Suivi!H4</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G14" s="18">
         <f t="shared" si="7"/>
-        <v>42750</v>
+        <v>42753</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -2892,11 +2959,11 @@
       </c>
       <c r="F16" s="29">
         <f>Suivi!H6</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G16" s="18">
         <f t="shared" si="7"/>
-        <v>42751.75</v>
+        <v>42752</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2952,11 +3019,11 @@
       </c>
       <c r="F18" s="29">
         <f>Suivi!H8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="18">
         <f t="shared" si="7"/>
-        <v>42751</v>
+        <v>42753</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3184,11 +3251,11 @@
       </c>
       <c r="D26" s="11">
         <f>Suivi!G16</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E26" s="31">
         <f t="shared" si="8"/>
-        <v>42761</v>
+        <v>42753</v>
       </c>
       <c r="F26" s="29">
         <f>Suivi!H16</f>
@@ -3196,7 +3263,7 @@
       </c>
       <c r="G26" s="18">
         <f t="shared" si="7"/>
-        <v>42761</v>
+        <v>42753</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3750,7 +3817,7 @@
       </c>
       <c r="F45" s="29">
         <f>Suivi!H35</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4199,11 +4266,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C2:E2"/>
@@ -4213,6 +4275,11 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:BO8">
     <cfRule type="expression" dxfId="27" priority="16">
@@ -4314,8 +4381,8 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4335,19 +4402,19 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -4356,33 +4423,33 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
       </c>
       <c r="F2" s="34">
         <v>42740</v>
@@ -4402,19 +4469,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
       </c>
       <c r="F3" s="34">
         <v>42745</v>
@@ -4425,25 +4492,28 @@
       <c r="H3" s="35">
         <v>0</v>
       </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F4" s="34">
         <v>42750</v>
@@ -4452,24 +4522,27 @@
         <v>5</v>
       </c>
       <c r="H4" s="35">
-        <v>0</v>
+        <v>0.25</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F5" s="34">
         <v>42755</v>
@@ -4480,25 +4553,28 @@
       <c r="H5" s="35">
         <v>0</v>
       </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F6" s="34">
         <v>42751</v>
@@ -4507,24 +4583,27 @@
         <v>2</v>
       </c>
       <c r="H6" s="35">
-        <v>0.75</v>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F7" s="34">
         <v>42752</v>
@@ -4535,22 +4614,25 @@
       <c r="H7" s="35">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F8" s="34">
         <v>42751</v>
@@ -4559,24 +4641,27 @@
         <v>3</v>
       </c>
       <c r="H8" s="35">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F9" s="34">
         <v>42751</v>
@@ -4596,19 +4681,19 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F10" s="34">
         <v>42751</v>
@@ -4619,22 +4704,25 @@
       <c r="H10" s="35">
         <v>0</v>
       </c>
+      <c r="K10" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F11" s="34">
         <v>42751</v>
@@ -4645,22 +4733,25 @@
       <c r="H11" s="35">
         <v>0</v>
       </c>
+      <c r="K11" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F12" s="34">
         <v>42751</v>
@@ -4671,22 +4762,25 @@
       <c r="H12" s="35">
         <v>0</v>
       </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F13" s="34">
         <v>42751</v>
@@ -4697,22 +4791,25 @@
       <c r="H13" s="35">
         <v>0</v>
       </c>
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F14" s="34">
         <v>42751</v>
@@ -4723,25 +4820,28 @@
       <c r="H14" s="35">
         <v>0</v>
       </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
       <c r="K14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F15" s="34">
         <v>42751</v>
@@ -4752,31 +4852,37 @@
       <c r="H15" s="35">
         <v>0</v>
       </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F16" s="34">
         <v>42751</v>
       </c>
       <c r="G16">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H16" s="35">
         <v>1</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -4784,16 +4890,16 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F17" s="34">
         <v>42740</v>
@@ -4803,6 +4909,9 @@
       </c>
       <c r="H17" s="35">
         <v>1</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -4810,16 +4919,16 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
         <v>66</v>
       </c>
-      <c r="C18" t="s">
-        <v>69</v>
-      </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F18" s="34">
         <v>42752</v>
@@ -4829,6 +4938,9 @@
       </c>
       <c r="H18" s="35">
         <v>1</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -4836,16 +4948,16 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F19" s="34">
         <v>42753</v>
@@ -4855,6 +4967,9 @@
       </c>
       <c r="H19" s="35">
         <v>0</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -4862,16 +4977,16 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F20" s="34">
         <v>42752</v>
@@ -4882,22 +4997,25 @@
       <c r="H20" s="35">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
         <v>75</v>
       </c>
-      <c r="B21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" t="s">
-        <v>78</v>
-      </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F21" s="34">
         <v>42768</v>
@@ -4908,19 +5026,25 @@
       <c r="H21" s="35">
         <v>0</v>
       </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
         <v>76</v>
       </c>
-      <c r="C22" t="s">
-        <v>79</v>
-      </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
       </c>
       <c r="F22" s="34">
         <v>42768</v>
@@ -4931,19 +5055,25 @@
       <c r="H22" s="35">
         <v>0</v>
       </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
       </c>
       <c r="F23" s="34">
         <v>42768</v>
@@ -4954,19 +5084,25 @@
       <c r="H23" s="35">
         <v>0</v>
       </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
       </c>
       <c r="F24" s="34">
         <v>42770</v>
@@ -4977,22 +5113,28 @@
       <c r="H24" s="35">
         <v>0</v>
       </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
       <c r="K24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
       </c>
       <c r="F25" s="34">
         <v>42771</v>
@@ -5003,19 +5145,25 @@
       <c r="H25" s="35">
         <v>0</v>
       </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>86</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
       </c>
       <c r="F26" s="34">
         <v>42772</v>
@@ -5026,22 +5174,28 @@
       <c r="H26" s="35">
         <v>0</v>
       </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
       <c r="K26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
       </c>
       <c r="F27" s="34">
         <v>42773</v>
@@ -5052,19 +5206,25 @@
       <c r="H27" s="35">
         <v>0</v>
       </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
       </c>
       <c r="F28" s="34">
         <v>42773</v>
@@ -5075,22 +5235,28 @@
       <c r="H28" s="35">
         <v>0</v>
       </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
       <c r="K28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
       </c>
       <c r="F29" s="34">
         <v>42773</v>
@@ -5101,19 +5267,25 @@
       <c r="H29" s="35">
         <v>0</v>
       </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
       </c>
       <c r="F30" s="34">
         <v>42774</v>
@@ -5124,19 +5296,25 @@
       <c r="H30" s="35">
         <v>0</v>
       </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
       </c>
       <c r="F31" s="34">
         <v>42775</v>
@@ -5147,25 +5325,28 @@
       <c r="H31" s="35">
         <v>0</v>
       </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
       <c r="K31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" t="s">
         <v>103</v>
       </c>
-      <c r="B32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" t="s">
-        <v>106</v>
-      </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F32" s="34">
         <v>42776</v>
@@ -5176,22 +5357,25 @@
       <c r="H32" s="35">
         <v>0</v>
       </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" t="s">
         <v>104</v>
       </c>
-      <c r="C33" t="s">
-        <v>107</v>
-      </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F33" s="34">
         <v>42777</v>
@@ -5202,25 +5386,28 @@
       <c r="H33" s="35">
         <v>0</v>
       </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
       <c r="K33" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" t="s">
         <v>110</v>
       </c>
-      <c r="B34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" t="s">
-        <v>113</v>
-      </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F34" s="34">
         <v>42740</v>
@@ -5237,19 +5424,19 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" t="s">
         <v>111</v>
       </c>
-      <c r="C35" t="s">
-        <v>114</v>
-      </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F35" s="34">
         <v>42740</v>
@@ -5258,21 +5445,27 @@
         <v>1</v>
       </c>
       <c r="H35" s="35">
-        <v>0</v>
+        <v>0.75</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" t="s">
         <v>116</v>
       </c>
-      <c r="B36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" t="s">
-        <v>119</v>
+      <c r="E36" t="s">
+        <v>26</v>
       </c>
       <c r="F36" s="34">
         <v>42787</v>
@@ -5286,19 +5479,19 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" t="s">
         <v>117</v>
       </c>
-      <c r="C37" t="s">
-        <v>120</v>
-      </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F37" s="34">
         <v>42740</v>
@@ -5312,19 +5505,19 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F38" s="34">
         <v>42740</v>
@@ -5344,19 +5537,19 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" t="s">
         <v>122</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" t="s">
         <v>123</v>
-      </c>
-      <c r="C39" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" t="s">
-        <v>126</v>
       </c>
       <c r="F39" s="34">
         <v>42740</v>
@@ -5367,22 +5560,25 @@
       <c r="H39" s="35">
         <v>0</v>
       </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F40" s="34">
         <v>42740</v>
@@ -5393,22 +5589,25 @@
       <c r="H40" s="35">
         <v>0</v>
       </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F41" s="34">
         <v>42740</v>
@@ -5418,6 +5617,9 @@
       </c>
       <c r="H41" s="35">
         <v>0</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5459,19 +5661,19 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>21</v>
-      </c>
       <c r="D1" s="37" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>1</v>
@@ -5480,33 +5682,33 @@
         <v>2</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>29</v>
       </c>
       <c r="F2" s="38">
         <v>42740</v>
@@ -5527,19 +5729,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>29</v>
       </c>
       <c r="F3" s="38">
         <v>42745</v>
@@ -5553,24 +5755,24 @@
       <c r="I3" s="37"/>
       <c r="J3" s="37"/>
       <c r="K3" s="37" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F4" s="38">
         <v>42750</v>
@@ -5587,19 +5789,19 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F5" s="38">
         <v>42755</v>
@@ -5613,24 +5815,24 @@
       <c r="I5" s="37"/>
       <c r="J5" s="37"/>
       <c r="K5" s="37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F6" s="38">
         <v>42751</v>
@@ -5647,19 +5849,19 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>45</v>
-      </c>
       <c r="E7" s="37" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F7" s="38">
         <v>42752</v>
@@ -5676,19 +5878,19 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>46</v>
-      </c>
       <c r="D8" s="37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F8" s="38">
         <v>42751</v>
@@ -5705,19 +5907,19 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F9" s="38">
         <v>42751</v>
@@ -5734,19 +5936,19 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F10" s="38">
         <v>42751</v>
@@ -5763,19 +5965,19 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F11" s="38">
         <v>42751</v>
@@ -5792,19 +5994,19 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F12" s="38">
         <v>42751</v>
@@ -5821,19 +6023,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F13" s="38">
         <v>42751</v>
@@ -5850,19 +6052,19 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F14" s="38">
         <v>42751</v>
@@ -5876,24 +6078,24 @@
       <c r="I14" s="37"/>
       <c r="J14" s="37"/>
       <c r="K14" s="37" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F15" s="38">
         <v>42751</v>
@@ -5910,19 +6112,19 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F16" s="38">
         <v>42751</v>
@@ -5942,16 +6144,16 @@
         <v>9</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F17" s="38">
         <v>42740</v>
@@ -5971,16 +6173,16 @@
         <v>9</v>
       </c>
       <c r="B18" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="37" t="s">
-        <v>69</v>
-      </c>
       <c r="D18" s="37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F18" s="38">
         <v>42752</v>
@@ -6000,16 +6202,16 @@
         <v>9</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F19" s="38">
         <v>42753</v>
@@ -6029,16 +6231,16 @@
         <v>9</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F20" s="38">
         <v>42752</v>
@@ -6055,19 +6257,19 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>78</v>
-      </c>
       <c r="E21" s="37" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F21" s="38">
         <v>42768</v>
@@ -6084,16 +6286,16 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B22" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="37" t="s">
-        <v>79</v>
-      </c>
       <c r="D22" s="37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="38">
@@ -6111,16 +6313,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E23" s="37"/>
       <c r="F23" s="38">
@@ -6138,16 +6340,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E24" s="37"/>
       <c r="F24" s="38">
@@ -6162,21 +6364,21 @@
       <c r="I24" s="37"/>
       <c r="J24" s="37"/>
       <c r="K24" s="37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E25" s="37"/>
       <c r="F25" s="38">
@@ -6194,16 +6396,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="38">
@@ -6218,21 +6420,21 @@
       <c r="I26" s="37"/>
       <c r="J26" s="37"/>
       <c r="K26" s="37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E27" s="37"/>
       <c r="F27" s="38">
@@ -6250,16 +6452,16 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="38">
@@ -6274,21 +6476,21 @@
       <c r="I28" s="37"/>
       <c r="J28" s="37"/>
       <c r="K28" s="37" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E29" s="37"/>
       <c r="F29" s="38">
@@ -6306,16 +6508,16 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E30" s="37"/>
       <c r="F30" s="38">
@@ -6333,16 +6535,16 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E31" s="37"/>
       <c r="F31" s="38">
@@ -6357,24 +6559,24 @@
       <c r="I31" s="37"/>
       <c r="J31" s="37"/>
       <c r="K31" s="37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>106</v>
-      </c>
       <c r="E32" s="37" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F32" s="38">
         <v>42776</v>
@@ -6391,19 +6593,19 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B33" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="37" t="s">
-        <v>107</v>
-      </c>
       <c r="D33" s="37" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F33" s="38">
         <v>42777</v>
@@ -6417,21 +6619,21 @@
       <c r="I33" s="37"/>
       <c r="J33" s="37"/>
       <c r="K33" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="37" t="s">
         <v>110</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>113</v>
       </c>
       <c r="E34" s="37"/>
       <c r="F34" s="38">
@@ -6449,19 +6651,19 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B35" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="37" t="s">
-        <v>114</v>
-      </c>
       <c r="D35" s="37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F35" s="38">
         <v>42740</v>
@@ -6478,16 +6680,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="37" t="s">
         <v>116</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>119</v>
       </c>
       <c r="E36" s="37"/>
       <c r="F36" s="38">
@@ -6505,19 +6707,19 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B37" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="37" t="s">
-        <v>120</v>
-      </c>
       <c r="D37" s="37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F37" s="38">
         <v>42740</v>
@@ -6534,19 +6736,19 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F38" s="38">
         <v>42740</v>
@@ -6563,19 +6765,19 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="D39" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="37" t="s">
         <v>123</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="37" t="s">
-        <v>126</v>
       </c>
       <c r="F39" s="38">
         <v>42740</v>
@@ -6592,19 +6794,19 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="37" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F40" s="38">
         <v>42740</v>
@@ -6621,19 +6823,19 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D41" s="37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F41" s="38">
         <v>42740</v>

--- a/ressources/stockage/Diagramme-de-Gantt-sur-Excel-v3.xlsx
+++ b/ressources/stockage/Diagramme-de-Gantt-sur-Excel-v3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="670" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Projet 1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="133">
   <si>
     <t>Projet</t>
   </si>
@@ -650,7 +650,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -738,17 +738,14 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -768,61 +765,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -1104,9 +1066,9 @@
     <tableColumn id="3" name="Id sous-tâche"/>
     <tableColumn id="4" name="Sous-tâches"/>
     <tableColumn id="5" name="Auteur"/>
-    <tableColumn id="6" name="Date de début" dataDxfId="14"/>
+    <tableColumn id="6" name="Date de début" dataDxfId="3"/>
     <tableColumn id="7" name="Durée"/>
-    <tableColumn id="8" name="Réalisé" dataDxfId="13"/>
+    <tableColumn id="8" name="Réalisé" dataDxfId="2"/>
     <tableColumn id="9" name="Estimation"/>
     <tableColumn id="10" name="Réel"/>
     <tableColumn id="11" name="Commentaire"/>
@@ -1116,20 +1078,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:K41" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:K41" totalsRowShown="0">
   <autoFilter ref="A1:K41"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="id-tâche" dataDxfId="10"/>
-    <tableColumn id="2" name="Tâches" dataDxfId="9"/>
-    <tableColumn id="3" name="Id sous-tâche" dataDxfId="8"/>
-    <tableColumn id="4" name="Sous-tâches" dataDxfId="7"/>
-    <tableColumn id="5" name="Auteur" dataDxfId="6"/>
-    <tableColumn id="6" name="Date de début" dataDxfId="5"/>
-    <tableColumn id="7" name="Durée" dataDxfId="4"/>
-    <tableColumn id="8" name="Réalisé" dataDxfId="3"/>
-    <tableColumn id="9" name="Estimation" dataDxfId="2"/>
-    <tableColumn id="10" name="Réel" dataDxfId="1"/>
-    <tableColumn id="11" name="Commentaire" dataDxfId="0"/>
+    <tableColumn id="1" name="id-tâche"/>
+    <tableColumn id="2" name="Tâches"/>
+    <tableColumn id="3" name="Id sous-tâche"/>
+    <tableColumn id="4" name="Sous-tâches"/>
+    <tableColumn id="5" name="Auteur"/>
+    <tableColumn id="6" name="Date de début" dataDxfId="1"/>
+    <tableColumn id="7" name="Durée"/>
+    <tableColumn id="8" name="Réalisé" dataDxfId="0"/>
+    <tableColumn id="9" name="Estimation"/>
+    <tableColumn id="10" name="Réel"/>
+    <tableColumn id="11" name="Commentaire"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1462,7 +1424,7 @@
   </sheetPr>
   <dimension ref="A1:BO99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
@@ -1481,57 +1443,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
       <c r="G1" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:67" ht="12" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="43" t="s">
+      <c r="A2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
       <c r="G2" s="3">
         <f ca="1">TODAY()</f>
         <v>42759</v>
       </c>
     </row>
     <row r="3" spans="1:67" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="43" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:67" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="23"/>
       <c r="D4" s="24"/>
       <c r="E4" s="25"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:67" ht="12" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="32" t="s">
         <v>12</v>
       </c>
@@ -1540,10 +1502,10 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:67" ht="12" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="46"/>
+      <c r="A6" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="43"/>
       <c r="C6" s="27">
         <v>42740</v>
       </c>
@@ -1552,13 +1514,13 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:67" s="4" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="16"/>
       <c r="G7" s="13"/>
       <c r="H7" s="5">
@@ -2049,19 +2011,19 @@
     </row>
     <row r="9" spans="1:67" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="42" t="s">
+      <c r="C9" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="46" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="15"/>
@@ -2308,11 +2270,11 @@
     </row>
     <row r="10" spans="1:67" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="40"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="15"/>
       <c r="H10" s="10">
         <f>DAY(H7)</f>
@@ -4266,6 +4228,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C2:E2"/>
@@ -4275,62 +4242,57 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:BO8">
-    <cfRule type="expression" dxfId="27" priority="16">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>H8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BO7">
-    <cfRule type="expression" dxfId="26" priority="15">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>I10&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BO10">
-    <cfRule type="expression" dxfId="25" priority="13">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>I$10=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F102">
-    <cfRule type="expression" dxfId="24" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>$B11&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:BO99">
-    <cfRule type="expression" dxfId="23" priority="29">
+    <cfRule type="expression" dxfId="12" priority="29">
       <formula>AND(H$7=$G$2,$B7&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:BO99">
-    <cfRule type="expression" dxfId="22" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="30" stopIfTrue="1">
       <formula>$B12=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="31">
+    <cfRule type="expression" dxfId="10" priority="31">
       <formula>AND(H$7&gt;=$C12,H$7&lt;=$E12,H$7&lt;=$G12,$F12&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="32">
+    <cfRule type="expression" dxfId="9" priority="32">
       <formula>AND(H$7&gt;=$C12,H$7&lt;=$E12,H$7&gt;=$G12,H$7&gt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="33">
+    <cfRule type="expression" dxfId="8" priority="33">
       <formula>AND(H$7&gt;=$C12,H$7&lt;=$E12,H$7&gt;=$G12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:BO11">
-    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>$B11=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>AND(H$7&gt;=$C11,H$7&lt;=$E11,H$7&lt;=$G11,$F11&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>AND(H$7&gt;=$C11,H$7&lt;=$E11,H$7&gt;=$G11,H$7&gt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>AND(H$7&gt;=$C11,H$7&lt;=$E11,H$7&gt;=$G11)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4382,7 +4344,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5640,8 +5602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5660,1198 +5622,1229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="37" t="s">
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="34">
         <v>42740</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2" s="39">
-        <v>0</v>
-      </c>
-      <c r="I2" s="37">
+      <c r="H2" s="35">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="J2" s="37">
+      <c r="J2">
         <v>2</v>
       </c>
-      <c r="K2" s="37"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="34">
         <v>42745</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3">
         <v>24</v>
       </c>
-      <c r="H3" s="39">
-        <v>0</v>
-      </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37" t="s">
+      <c r="H3" s="35">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="34">
         <v>42750</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4">
         <v>5</v>
       </c>
-      <c r="H4" s="39">
-        <v>0</v>
-      </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
+      <c r="H4" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="34">
         <v>42755</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="H5" s="39">
-        <v>0</v>
-      </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37" t="s">
+      <c r="H5" s="35">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="34">
         <v>42751</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="35">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="34">
+        <v>42752</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="35">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="34">
+        <v>42751</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="34">
+        <v>42751</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="35">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="34">
+        <v>42751</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="35">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="34">
+        <v>42751</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="35">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="34">
+        <v>42751</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="35">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="34">
+        <v>42751</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="35">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="34">
+        <v>42751</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14" s="35">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="34">
+        <v>42751</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
+      <c r="H15" s="35">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="34">
+        <v>42751</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16" s="35">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="34">
+        <v>42740</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+      <c r="H17" s="35">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="34">
+        <v>42752</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="35">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="34">
+        <v>42753</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="35">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="34">
+        <v>42752</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="35">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="34">
+        <v>42768</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="35">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="34">
+        <v>42768</v>
+      </c>
+      <c r="G22">
+        <v>28</v>
+      </c>
+      <c r="H22" s="35">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="34">
+        <v>42768</v>
+      </c>
+      <c r="G23">
+        <v>28</v>
+      </c>
+      <c r="H23" s="35">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="34">
+        <v>42770</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="35">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="34">
+        <v>42771</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="35">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="34">
+        <v>42772</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" s="35">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="34">
+        <v>42773</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="35">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="34">
+        <v>42773</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" s="35">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="34">
+        <v>42773</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" s="35">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="34">
+        <v>42774</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30" s="35">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="34">
+        <v>42775</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" s="35">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="34">
+        <v>42776</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" s="35">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="34">
+        <v>42777</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" s="35">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="34">
+        <v>42740</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34" s="35">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="34">
+        <v>42740</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" s="35">
         <v>0.75</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="37" t="s">
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="38">
-        <v>42752</v>
-      </c>
-      <c r="G7" s="37">
-        <v>1</v>
-      </c>
-      <c r="H7" s="39">
-        <v>0</v>
-      </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="37" t="s">
+      <c r="F36" s="34">
+        <v>42787</v>
+      </c>
+      <c r="G36">
+        <v>9</v>
+      </c>
+      <c r="H36" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="34">
+        <v>42740</v>
+      </c>
+      <c r="G37">
+        <v>58</v>
+      </c>
+      <c r="H37" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="34">
+        <v>42740</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" s="35">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="34">
+        <v>42740</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" s="35">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="38">
-        <v>42751</v>
-      </c>
-      <c r="G8" s="37">
-        <v>3</v>
-      </c>
-      <c r="H8" s="39">
-        <v>0</v>
-      </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="38">
-        <v>42751</v>
-      </c>
-      <c r="G9" s="37">
-        <v>8</v>
-      </c>
-      <c r="H9" s="39">
-        <v>0</v>
-      </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="38">
-        <v>42751</v>
-      </c>
-      <c r="G10" s="37">
-        <v>8</v>
-      </c>
-      <c r="H10" s="39">
-        <v>0</v>
-      </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="38">
-        <v>42751</v>
-      </c>
-      <c r="G11" s="37">
-        <v>8</v>
-      </c>
-      <c r="H11" s="39">
-        <v>0</v>
-      </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="38">
-        <v>42751</v>
-      </c>
-      <c r="G12" s="37">
-        <v>8</v>
-      </c>
-      <c r="H12" s="39">
-        <v>0</v>
-      </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="38">
-        <v>42751</v>
-      </c>
-      <c r="G13" s="37">
-        <v>8</v>
-      </c>
-      <c r="H13" s="39">
-        <v>0</v>
-      </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="37" t="s">
+      <c r="F40" s="34">
+        <v>42740</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" s="35">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="38">
-        <v>42751</v>
-      </c>
-      <c r="G14" s="37">
-        <v>11</v>
-      </c>
-      <c r="H14" s="39">
-        <v>0</v>
-      </c>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="38">
-        <v>42751</v>
-      </c>
-      <c r="G15" s="37">
-        <v>11</v>
-      </c>
-      <c r="H15" s="39">
-        <v>0</v>
-      </c>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="38">
-        <v>42751</v>
-      </c>
-      <c r="G16" s="37">
-        <v>11</v>
-      </c>
-      <c r="H16" s="39">
-        <v>0</v>
-      </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="38">
+      <c r="F41" s="34">
         <v>42740</v>
       </c>
-      <c r="G17" s="37">
-        <v>20</v>
-      </c>
-      <c r="H17" s="39">
-        <v>0</v>
-      </c>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="38">
-        <v>42752</v>
-      </c>
-      <c r="G18" s="37">
-        <v>1</v>
-      </c>
-      <c r="H18" s="39">
-        <v>1</v>
-      </c>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="38">
-        <v>42753</v>
-      </c>
-      <c r="G19" s="37">
-        <v>1</v>
-      </c>
-      <c r="H19" s="39">
-        <v>0</v>
-      </c>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="38">
-        <v>42752</v>
-      </c>
-      <c r="G20" s="37">
-        <v>1</v>
-      </c>
-      <c r="H20" s="39">
-        <v>1</v>
-      </c>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="38">
-        <v>42768</v>
-      </c>
-      <c r="G21" s="37">
-        <v>2</v>
-      </c>
-      <c r="H21" s="39">
-        <v>0</v>
-      </c>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38">
-        <v>42768</v>
-      </c>
-      <c r="G22" s="37">
-        <v>28</v>
-      </c>
-      <c r="H22" s="39">
-        <v>0</v>
-      </c>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38">
-        <v>42768</v>
-      </c>
-      <c r="G23" s="37">
-        <v>28</v>
-      </c>
-      <c r="H23" s="39">
-        <v>0</v>
-      </c>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38">
-        <v>42770</v>
-      </c>
-      <c r="G24" s="37">
-        <v>1</v>
-      </c>
-      <c r="H24" s="39">
-        <v>0</v>
-      </c>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38">
-        <v>42771</v>
-      </c>
-      <c r="G25" s="37">
-        <v>1</v>
-      </c>
-      <c r="H25" s="39">
-        <v>0</v>
-      </c>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38">
-        <v>42772</v>
-      </c>
-      <c r="G26" s="37">
-        <v>1</v>
-      </c>
-      <c r="H26" s="39">
-        <v>0</v>
-      </c>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38">
-        <v>42773</v>
-      </c>
-      <c r="G27" s="37">
-        <v>1</v>
-      </c>
-      <c r="H27" s="39">
-        <v>0</v>
-      </c>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38">
-        <v>42773</v>
-      </c>
-      <c r="G28" s="37">
-        <v>1</v>
-      </c>
-      <c r="H28" s="39">
-        <v>0</v>
-      </c>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="38">
-        <v>42773</v>
-      </c>
-      <c r="G29" s="37">
-        <v>1</v>
-      </c>
-      <c r="H29" s="39">
-        <v>0</v>
-      </c>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38">
-        <v>42774</v>
-      </c>
-      <c r="G30" s="37">
-        <v>2</v>
-      </c>
-      <c r="H30" s="39">
-        <v>0</v>
-      </c>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38">
-        <v>42775</v>
-      </c>
-      <c r="G31" s="37">
-        <v>1</v>
-      </c>
-      <c r="H31" s="39">
-        <v>0</v>
-      </c>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="38">
-        <v>42776</v>
-      </c>
-      <c r="G32" s="37">
-        <v>1</v>
-      </c>
-      <c r="H32" s="39">
-        <v>0</v>
-      </c>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="38">
-        <v>42777</v>
-      </c>
-      <c r="G33" s="37">
-        <v>3</v>
-      </c>
-      <c r="H33" s="39">
-        <v>0</v>
-      </c>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="38">
-        <v>42740</v>
-      </c>
-      <c r="G34" s="37">
-        <v>56</v>
-      </c>
-      <c r="H34" s="39">
-        <v>0</v>
-      </c>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="38">
-        <v>42740</v>
-      </c>
-      <c r="G35" s="37">
-        <v>1</v>
-      </c>
-      <c r="H35" s="39">
-        <v>0</v>
-      </c>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="38">
-        <v>42787</v>
-      </c>
-      <c r="G36" s="37">
-        <v>9</v>
-      </c>
-      <c r="H36" s="39">
-        <v>0</v>
-      </c>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="38">
-        <v>42740</v>
-      </c>
-      <c r="G37" s="37">
-        <v>58</v>
-      </c>
-      <c r="H37" s="39">
-        <v>0</v>
-      </c>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38" s="38">
-        <v>42740</v>
-      </c>
-      <c r="G38" s="37">
-        <v>1</v>
-      </c>
-      <c r="H38" s="39">
-        <v>0</v>
-      </c>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="F39" s="38">
-        <v>42740</v>
-      </c>
-      <c r="G39" s="37">
-        <v>1</v>
-      </c>
-      <c r="H39" s="39">
-        <v>0</v>
-      </c>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="E40" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="38">
-        <v>42740</v>
-      </c>
-      <c r="G40" s="37">
-        <v>1</v>
-      </c>
-      <c r="H40" s="39">
-        <v>0</v>
-      </c>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F41" s="38">
-        <v>42740</v>
-      </c>
-      <c r="G41" s="37">
-        <v>1</v>
-      </c>
-      <c r="H41" s="39">
-        <v>0</v>
-      </c>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" s="35">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rA9T4ruBrYwOnTgEZshYD1eMqa4TO/9/hNBWGY0hKyjC7DqyAuaSKD/bQW2YsZ9c/OvJDmZQD7UD06qF9f6XoA==" saltValue="q1PeexO79cReSn55g//TGQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+cVx6dTvlBTc7DTRoy+PmTjxW3kdbiGOb/xmaN2/giragcspblSP4zvfS4d5rJ+u7u6SR+9+Ux+hNEbW5oK0Zg==" saltValue="KJKAQEC/M/ouXCNwfatYsA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E41">
       <formula1>"Corentin,Shaïma,Théophile,Anthony,Tous"</formula1>

--- a/ressources/stockage/Diagramme-de-Gantt-sur-Excel-v3.xlsx
+++ b/ressources/stockage/Diagramme-de-Gantt-sur-Excel-v3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="670" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Projet 1" sheetId="1" r:id="rId1"/>
@@ -4343,8 +4343,8 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="C24" workbookViewId="0">
+      <selection sqref="A1:K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5602,7 +5602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>

--- a/ressources/stockage/Diagramme-de-Gantt-sur-Excel-v3.xlsx
+++ b/ressources/stockage/Diagramme-de-Gantt-sur-Excel-v3.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Downloads\DISII-Projet2-master\DISII-Projet2-master\ressources\stockage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aslimani\Desktop\DISII-Projet2-master(2)\DISII-Projet2-master\ressources\stockage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="670" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="670" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Projet 1" sheetId="1" r:id="rId1"/>
     <sheet name="Suivi" sheetId="6" r:id="rId2"/>
-    <sheet name="backup" sheetId="7" r:id="rId3"/>
+    <sheet name="backup_feuille_protégée" sheetId="7" r:id="rId3"/>
     <sheet name="Table" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Projet 1'!$A$1:$BO$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Tableau1[#All]</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -455,7 +455,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-40C]mmm\-yy;@"/>
   </numFmts>
@@ -738,6 +738,15 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -764,15 +773,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1027,7 +1027,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1173,23 +1173,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1225,23 +1208,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1443,57 +1409,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="G1" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:67" ht="12" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="40" t="s">
+      <c r="A2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
       <c r="G2" s="3">
         <f ca="1">TODAY()</f>
         <v>42759</v>
       </c>
     </row>
     <row r="3" spans="1:67" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:67" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="23"/>
       <c r="D4" s="24"/>
       <c r="E4" s="25"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:67" ht="12" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="32" t="s">
         <v>12</v>
       </c>
@@ -1502,10 +1468,10 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:67" ht="12" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="43"/>
+      <c r="A6" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="46"/>
       <c r="C6" s="27">
         <v>42740</v>
       </c>
@@ -1514,13 +1480,13 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:67" s="4" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="16"/>
       <c r="G7" s="13"/>
       <c r="H7" s="5">
@@ -2011,19 +1977,19 @@
     </row>
     <row r="9" spans="1:67" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="48" t="s">
+      <c r="C9" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="37" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="15"/>
@@ -2270,11 +2236,11 @@
     </row>
     <row r="10" spans="1:67" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="46"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="15"/>
       <c r="H10" s="10">
         <f>DAY(H7)</f>
@@ -4228,11 +4194,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C2:E2"/>
@@ -4242,6 +4203,11 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:BO8">
     <cfRule type="expression" dxfId="16" priority="16">
@@ -4343,7 +4309,7 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C24" workbookViewId="0">
+    <sheetView topLeftCell="C24" workbookViewId="0">
       <selection sqref="A1:K41"/>
     </sheetView>
   </sheetViews>
@@ -5602,7 +5568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
